--- a/Excel-Homework-Exercises.xlsx
+++ b/Excel-Homework-Exercises.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/GodSpeed/Documents/CodeWork/excelAdvancedFormulas/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C77C69C1-32F9-BD4B-8CD4-0B83BEEA625C}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A1E6B4B8-CEF9-624F-972F-7EE7582B1F4C}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" tabRatio="709" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/Excel-Homework-Exercises.xlsx
+++ b/Excel-Homework-Exercises.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/GodSpeed/Documents/CodeWork/excelAdvancedFormulas/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00B37978-88F2-0C40-9024-83470BB82329}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{215EA95D-FBFA-A54A-ADB5-46A10DC1F248}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" tabRatio="709" firstSheet="2" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" tabRatio="709" firstSheet="7" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Formulas 101" sheetId="19" r:id="rId1"/>
@@ -4606,15 +4606,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>289560</xdr:colOff>
+      <xdr:colOff>632460</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:rowOff>165100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>480060</xdr:colOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>149860</xdr:colOff>
       <xdr:row>28</xdr:row>
-      <xdr:rowOff>7620</xdr:rowOff>
+      <xdr:rowOff>134620</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -4629,8 +4629,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10736580" y="220980"/>
-          <a:ext cx="5676900" cy="4907280"/>
+          <a:off x="12240260" y="355600"/>
+          <a:ext cx="6248400" cy="5113020"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6538,8 +6538,8 @@
   </sheetPr>
   <dimension ref="A1:H15"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -6584,169 +6584,463 @@
       <c r="A2" s="36" t="s">
         <v>208</v>
       </c>
-      <c r="B2" s="61"/>
-      <c r="C2" s="61"/>
-      <c r="D2" s="61"/>
-      <c r="E2" s="61"/>
-      <c r="F2" s="61"/>
-      <c r="G2" s="64"/>
-      <c r="H2" s="64"/>
+      <c r="B2" s="61" t="str">
+        <f>LEFT($A2, 6)</f>
+        <v>133462</v>
+      </c>
+      <c r="C2" s="61" t="str">
+        <f>LEFT($A2, SEARCH("-", $A2)-1)</f>
+        <v>133462</v>
+      </c>
+      <c r="D2" s="61" t="str">
+        <f>MID($A2, SEARCH("-", $A2)+1, 2)</f>
+        <v>AA</v>
+      </c>
+      <c r="E2" s="61" t="str">
+        <f>IF(ISNUMBER(SEARCH("SMALL",$A2)),"Small",IF(ISNUMBER(SEARCH("MEDIUM",$A2)),"Medium",IF(ISNUMBER(SEARCH("LARGE",$A2)),"Large",IF(ISNUMBER(SEARCH("XL",$A2)),"XL","Other"))))</f>
+        <v>Small</v>
+      </c>
+      <c r="F2" s="61" t="str">
+        <f>RIGHT($A2, LEN($A2)-SEARCH("_", $A2))</f>
+        <v>SMALL</v>
+      </c>
+      <c r="G2" s="64" t="str">
+        <f>SUBSTITUTE($A2, "-", "|", 2)</f>
+        <v>133462-AA|BOS_SMALL</v>
+      </c>
+      <c r="H2" s="64" t="str">
+        <f>MID($G2, SEARCH("|", $G2)+1, 3)</f>
+        <v>BOS</v>
+      </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="36" t="s">
         <v>209</v>
       </c>
-      <c r="B3" s="61"/>
-      <c r="C3" s="61"/>
-      <c r="D3" s="61"/>
-      <c r="E3" s="61"/>
-      <c r="F3" s="61"/>
-      <c r="G3" s="64"/>
-      <c r="H3" s="64"/>
+      <c r="B3" s="61" t="str">
+        <f t="shared" ref="B3:B15" si="0">LEFT($A3, 6)</f>
+        <v>191768</v>
+      </c>
+      <c r="C3" s="61" t="str">
+        <f t="shared" ref="C3:C15" si="1">LEFT($A3, SEARCH("-", $A3)-1)</f>
+        <v>191768</v>
+      </c>
+      <c r="D3" s="61" t="str">
+        <f t="shared" ref="D3:D15" si="2">MID($A3, SEARCH("-", $A3)+1, 2)</f>
+        <v>AC</v>
+      </c>
+      <c r="E3" s="61" t="str">
+        <f t="shared" ref="E3:E15" si="3">IF(ISNUMBER(SEARCH("SMALL",$A3)),"Small",IF(ISNUMBER(SEARCH("MEDIUM",$A3)),"Medium",IF(ISNUMBER(SEARCH("LARGE",$A3)),"Large",IF(ISNUMBER(SEARCH("XL",$A3)),"XL","Other"))))</f>
+        <v>Medium</v>
+      </c>
+      <c r="F3" s="61" t="str">
+        <f t="shared" ref="F3:F15" si="4">RIGHT($A3, LEN($A3)-SEARCH("_", $A3))</f>
+        <v>MEDIUM</v>
+      </c>
+      <c r="G3" s="64" t="str">
+        <f t="shared" ref="G3:G15" si="5">SUBSTITUTE($A3, "-", "|", 2)</f>
+        <v>191768-AC|NYC_MEDIUM</v>
+      </c>
+      <c r="H3" s="64" t="str">
+        <f t="shared" ref="H3:H15" si="6">MID($G3, SEARCH("|", $G3)+1, 3)</f>
+        <v>NYC</v>
+      </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="36" t="s">
         <v>210</v>
       </c>
-      <c r="B4" s="61"/>
-      <c r="C4" s="61"/>
-      <c r="D4" s="61"/>
-      <c r="E4" s="61"/>
-      <c r="F4" s="61"/>
-      <c r="G4" s="64"/>
-      <c r="H4" s="64"/>
+      <c r="B4" s="61" t="str">
+        <f t="shared" si="0"/>
+        <v>157263</v>
+      </c>
+      <c r="C4" s="61" t="str">
+        <f t="shared" si="1"/>
+        <v>157263</v>
+      </c>
+      <c r="D4" s="61" t="str">
+        <f t="shared" si="2"/>
+        <v>BB</v>
+      </c>
+      <c r="E4" s="61" t="str">
+        <f t="shared" si="3"/>
+        <v>XL</v>
+      </c>
+      <c r="F4" s="61" t="str">
+        <f t="shared" si="4"/>
+        <v>XL</v>
+      </c>
+      <c r="G4" s="64" t="str">
+        <f t="shared" si="5"/>
+        <v>157263-BB|BOS_XL</v>
+      </c>
+      <c r="H4" s="64" t="str">
+        <f t="shared" si="6"/>
+        <v>BOS</v>
+      </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="36" t="s">
         <v>211</v>
       </c>
-      <c r="B5" s="61"/>
-      <c r="C5" s="61"/>
-      <c r="D5" s="61"/>
-      <c r="E5" s="61"/>
-      <c r="F5" s="61"/>
-      <c r="G5" s="64"/>
-      <c r="H5" s="64"/>
+      <c r="B5" s="61" t="str">
+        <f t="shared" si="0"/>
+        <v>173437</v>
+      </c>
+      <c r="C5" s="61" t="str">
+        <f t="shared" si="1"/>
+        <v>1734372</v>
+      </c>
+      <c r="D5" s="61" t="str">
+        <f t="shared" si="2"/>
+        <v>AA</v>
+      </c>
+      <c r="E5" s="61" t="str">
+        <f t="shared" si="3"/>
+        <v>Small</v>
+      </c>
+      <c r="F5" s="61" t="str">
+        <f t="shared" si="4"/>
+        <v>SMALL</v>
+      </c>
+      <c r="G5" s="64" t="str">
+        <f t="shared" si="5"/>
+        <v>1734372-AA|CHI_SMALL</v>
+      </c>
+      <c r="H5" s="64" t="str">
+        <f t="shared" si="6"/>
+        <v>CHI</v>
+      </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="36" t="s">
         <v>212</v>
       </c>
-      <c r="B6" s="61"/>
-      <c r="C6" s="61"/>
-      <c r="D6" s="61"/>
-      <c r="E6" s="61"/>
-      <c r="F6" s="61"/>
-      <c r="G6" s="64"/>
-      <c r="H6" s="64"/>
+      <c r="B6" s="61" t="str">
+        <f t="shared" si="0"/>
+        <v>135351</v>
+      </c>
+      <c r="C6" s="61" t="str">
+        <f t="shared" si="1"/>
+        <v>135351</v>
+      </c>
+      <c r="D6" s="61" t="str">
+        <f t="shared" si="2"/>
+        <v>BC</v>
+      </c>
+      <c r="E6" s="61" t="str">
+        <f t="shared" si="3"/>
+        <v>XL</v>
+      </c>
+      <c r="F6" s="61" t="str">
+        <f t="shared" si="4"/>
+        <v>XL</v>
+      </c>
+      <c r="G6" s="64" t="str">
+        <f t="shared" si="5"/>
+        <v>135351-BC|NYC_XL</v>
+      </c>
+      <c r="H6" s="64" t="str">
+        <f t="shared" si="6"/>
+        <v>NYC</v>
+      </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="36" t="s">
         <v>213</v>
       </c>
-      <c r="B7" s="61"/>
-      <c r="C7" s="61"/>
-      <c r="D7" s="61"/>
-      <c r="E7" s="61"/>
-      <c r="F7" s="61"/>
-      <c r="G7" s="64"/>
-      <c r="H7" s="64"/>
+      <c r="B7" s="61" t="str">
+        <f t="shared" si="0"/>
+        <v>143303</v>
+      </c>
+      <c r="C7" s="61" t="str">
+        <f t="shared" si="1"/>
+        <v>14330305</v>
+      </c>
+      <c r="D7" s="61" t="str">
+        <f t="shared" si="2"/>
+        <v>AC</v>
+      </c>
+      <c r="E7" s="61" t="str">
+        <f t="shared" si="3"/>
+        <v>Large</v>
+      </c>
+      <c r="F7" s="61" t="str">
+        <f t="shared" si="4"/>
+        <v>LARGE</v>
+      </c>
+      <c r="G7" s="64" t="str">
+        <f t="shared" si="5"/>
+        <v>14330305-AC|BOS_LARGE</v>
+      </c>
+      <c r="H7" s="64" t="str">
+        <f t="shared" si="6"/>
+        <v>BOS</v>
+      </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="36" t="s">
         <v>214</v>
       </c>
-      <c r="B8" s="61"/>
-      <c r="C8" s="61"/>
-      <c r="D8" s="61"/>
-      <c r="E8" s="61"/>
-      <c r="F8" s="61"/>
-      <c r="G8" s="64"/>
-      <c r="H8" s="64"/>
+      <c r="B8" s="61" t="str">
+        <f t="shared" si="0"/>
+        <v>177772</v>
+      </c>
+      <c r="C8" s="61" t="str">
+        <f t="shared" si="1"/>
+        <v>177772</v>
+      </c>
+      <c r="D8" s="61" t="str">
+        <f t="shared" si="2"/>
+        <v>BB</v>
+      </c>
+      <c r="E8" s="61" t="str">
+        <f t="shared" si="3"/>
+        <v>Medium</v>
+      </c>
+      <c r="F8" s="61" t="str">
+        <f t="shared" si="4"/>
+        <v>MEDIUM</v>
+      </c>
+      <c r="G8" s="64" t="str">
+        <f t="shared" si="5"/>
+        <v>177772-BB|NYC_MEDIUM</v>
+      </c>
+      <c r="H8" s="64" t="str">
+        <f t="shared" si="6"/>
+        <v>NYC</v>
+      </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="36" t="s">
         <v>215</v>
       </c>
-      <c r="B9" s="61"/>
-      <c r="C9" s="61"/>
-      <c r="D9" s="61"/>
-      <c r="E9" s="61"/>
-      <c r="F9" s="61"/>
-      <c r="G9" s="64"/>
-      <c r="H9" s="64"/>
+      <c r="B9" s="61" t="str">
+        <f t="shared" si="0"/>
+        <v>871928</v>
+      </c>
+      <c r="C9" s="61" t="str">
+        <f t="shared" si="1"/>
+        <v>87192837</v>
+      </c>
+      <c r="D9" s="61" t="str">
+        <f t="shared" si="2"/>
+        <v>AB</v>
+      </c>
+      <c r="E9" s="61" t="str">
+        <f t="shared" si="3"/>
+        <v>XL</v>
+      </c>
+      <c r="F9" s="61" t="str">
+        <f t="shared" si="4"/>
+        <v>XL</v>
+      </c>
+      <c r="G9" s="64" t="str">
+        <f t="shared" si="5"/>
+        <v>87192837-AB|CHI_XL</v>
+      </c>
+      <c r="H9" s="64" t="str">
+        <f t="shared" si="6"/>
+        <v>CHI</v>
+      </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="36" t="s">
         <v>216</v>
       </c>
-      <c r="B10" s="61"/>
-      <c r="C10" s="61"/>
-      <c r="D10" s="61"/>
-      <c r="E10" s="61"/>
-      <c r="F10" s="61"/>
-      <c r="G10" s="64"/>
-      <c r="H10" s="64"/>
+      <c r="B10" s="61" t="str">
+        <f t="shared" si="0"/>
+        <v>161266</v>
+      </c>
+      <c r="C10" s="61" t="str">
+        <f t="shared" si="1"/>
+        <v>161266</v>
+      </c>
+      <c r="D10" s="61" t="str">
+        <f t="shared" si="2"/>
+        <v>BB</v>
+      </c>
+      <c r="E10" s="61" t="str">
+        <f t="shared" si="3"/>
+        <v>Small</v>
+      </c>
+      <c r="F10" s="61" t="str">
+        <f t="shared" si="4"/>
+        <v>SMALL</v>
+      </c>
+      <c r="G10" s="64" t="str">
+        <f t="shared" si="5"/>
+        <v>161266-BB|CHI_SMALL</v>
+      </c>
+      <c r="H10" s="64" t="str">
+        <f t="shared" si="6"/>
+        <v>CHI</v>
+      </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="36" t="s">
         <v>217</v>
       </c>
-      <c r="B11" s="61"/>
-      <c r="C11" s="61"/>
-      <c r="D11" s="61"/>
-      <c r="E11" s="61"/>
-      <c r="F11" s="61"/>
-      <c r="G11" s="64"/>
-      <c r="H11" s="64"/>
+      <c r="B11" s="61" t="str">
+        <f t="shared" si="0"/>
+        <v>122892</v>
+      </c>
+      <c r="C11" s="61" t="str">
+        <f t="shared" si="1"/>
+        <v>122892</v>
+      </c>
+      <c r="D11" s="61" t="str">
+        <f t="shared" si="2"/>
+        <v>AA</v>
+      </c>
+      <c r="E11" s="61" t="str">
+        <f t="shared" si="3"/>
+        <v>Medium</v>
+      </c>
+      <c r="F11" s="61" t="str">
+        <f t="shared" si="4"/>
+        <v>MEDIUM</v>
+      </c>
+      <c r="G11" s="64" t="str">
+        <f t="shared" si="5"/>
+        <v>122892-AA|NYC_MEDIUM</v>
+      </c>
+      <c r="H11" s="64" t="str">
+        <f t="shared" si="6"/>
+        <v>NYC</v>
+      </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="36" t="s">
         <v>218</v>
       </c>
-      <c r="B12" s="61"/>
-      <c r="C12" s="61"/>
-      <c r="D12" s="61"/>
-      <c r="E12" s="61"/>
-      <c r="F12" s="61"/>
-      <c r="G12" s="64"/>
-      <c r="H12" s="64"/>
+      <c r="B12" s="61" t="str">
+        <f t="shared" si="0"/>
+        <v>128919</v>
+      </c>
+      <c r="C12" s="61" t="str">
+        <f t="shared" si="1"/>
+        <v>128919</v>
+      </c>
+      <c r="D12" s="61" t="str">
+        <f t="shared" si="2"/>
+        <v>AC</v>
+      </c>
+      <c r="E12" s="61" t="str">
+        <f t="shared" si="3"/>
+        <v>XL</v>
+      </c>
+      <c r="F12" s="61" t="str">
+        <f t="shared" si="4"/>
+        <v>XL</v>
+      </c>
+      <c r="G12" s="64" t="str">
+        <f t="shared" si="5"/>
+        <v>128919-AC|CHI_XL</v>
+      </c>
+      <c r="H12" s="64" t="str">
+        <f t="shared" si="6"/>
+        <v>CHI</v>
+      </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="36" t="s">
         <v>219</v>
       </c>
-      <c r="B13" s="61"/>
-      <c r="C13" s="61"/>
-      <c r="D13" s="61"/>
-      <c r="E13" s="61"/>
-      <c r="F13" s="61"/>
-      <c r="G13" s="64"/>
-      <c r="H13" s="64"/>
+      <c r="B13" s="61" t="str">
+        <f t="shared" si="0"/>
+        <v>191999</v>
+      </c>
+      <c r="C13" s="61" t="str">
+        <f t="shared" si="1"/>
+        <v>191999</v>
+      </c>
+      <c r="D13" s="61" t="str">
+        <f t="shared" si="2"/>
+        <v>BB</v>
+      </c>
+      <c r="E13" s="61" t="str">
+        <f t="shared" si="3"/>
+        <v>Large</v>
+      </c>
+      <c r="F13" s="61" t="str">
+        <f t="shared" si="4"/>
+        <v>LARGE</v>
+      </c>
+      <c r="G13" s="64" t="str">
+        <f t="shared" si="5"/>
+        <v>191999-BB|BOS_LARGE</v>
+      </c>
+      <c r="H13" s="64" t="str">
+        <f t="shared" si="6"/>
+        <v>BOS</v>
+      </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="36" t="s">
         <v>220</v>
       </c>
-      <c r="B14" s="61"/>
-      <c r="C14" s="61"/>
-      <c r="D14" s="61"/>
-      <c r="E14" s="61"/>
-      <c r="F14" s="61"/>
-      <c r="G14" s="64"/>
-      <c r="H14" s="64"/>
+      <c r="B14" s="61" t="str">
+        <f t="shared" si="0"/>
+        <v>117091</v>
+      </c>
+      <c r="C14" s="61" t="str">
+        <f t="shared" si="1"/>
+        <v>117091126</v>
+      </c>
+      <c r="D14" s="61" t="str">
+        <f t="shared" si="2"/>
+        <v>BC</v>
+      </c>
+      <c r="E14" s="61" t="str">
+        <f t="shared" si="3"/>
+        <v>Large</v>
+      </c>
+      <c r="F14" s="61" t="str">
+        <f t="shared" si="4"/>
+        <v>LARGE</v>
+      </c>
+      <c r="G14" s="64" t="str">
+        <f t="shared" si="5"/>
+        <v>117091126-BC|NYC_LARGE</v>
+      </c>
+      <c r="H14" s="64" t="str">
+        <f t="shared" si="6"/>
+        <v>NYC</v>
+      </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" s="36" t="s">
         <v>223</v>
       </c>
-      <c r="B15" s="61"/>
-      <c r="C15" s="61"/>
-      <c r="D15" s="61"/>
-      <c r="E15" s="61"/>
-      <c r="F15" s="61"/>
-      <c r="G15" s="64"/>
-      <c r="H15" s="64"/>
+      <c r="B15" s="61" t="str">
+        <f t="shared" si="0"/>
+        <v>112283</v>
+      </c>
+      <c r="C15" s="61" t="str">
+        <f t="shared" si="1"/>
+        <v>112283</v>
+      </c>
+      <c r="D15" s="61" t="str">
+        <f t="shared" si="2"/>
+        <v>AB</v>
+      </c>
+      <c r="E15" s="61" t="str">
+        <f t="shared" si="3"/>
+        <v>Medium</v>
+      </c>
+      <c r="F15" s="61" t="str">
+        <f t="shared" si="4"/>
+        <v>MEDIUM</v>
+      </c>
+      <c r="G15" s="64" t="str">
+        <f t="shared" si="5"/>
+        <v>112283-AB|BOS_MEDIUM</v>
+      </c>
+      <c r="H15" s="64" t="str">
+        <f t="shared" si="6"/>
+        <v>BOS</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -24438,7 +24732,7 @@
   </sheetPr>
   <dimension ref="A1:D21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>

--- a/Excel-Homework-Exercises.xlsx
+++ b/Excel-Homework-Exercises.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/GodSpeed/Documents/CodeWork/excelAdvancedFormulas/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{215EA95D-FBFA-A54A-ADB5-46A10DC1F248}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5571AF22-8F97-E743-B542-0C0423B11878}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" tabRatio="709" firstSheet="7" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" tabRatio="709" firstSheet="7" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Formulas 101" sheetId="19" r:id="rId1"/>
@@ -849,7 +849,7 @@
     <numFmt numFmtId="165" formatCode="[$-409]m/d/yy\ h:mm\ AM/PM;@"/>
     <numFmt numFmtId="166" formatCode="0.0%"/>
     <numFmt numFmtId="167" formatCode="m/d;@"/>
-    <numFmt numFmtId="168" formatCode="0.000"/>
+    <numFmt numFmtId="169" formatCode="dddd"/>
   </numFmts>
   <fonts count="9" x14ac:knownFonts="1">
     <font>
@@ -1050,7 +1050,7 @@
     <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="80">
+  <cellXfs count="81">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1249,15 +1249,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1269,14 +1260,320 @@
     <xf numFmtId="14" fontId="1" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="169" fontId="1" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="2" builtinId="5"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="28">
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF8F8D"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF8F8D"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF8F8D"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF8F8D"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFF8F8D"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -6538,7 +6835,7 @@
   </sheetPr>
   <dimension ref="A1:H15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
@@ -7053,10 +7350,10 @@
   <sheetPr>
     <tabColor theme="9" tint="0.59999389629810485"/>
   </sheetPr>
-  <dimension ref="A1:G26"/>
+  <dimension ref="A1:G30"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="N27" sqref="N27"/>
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -7075,19 +7372,27 @@
       <c r="B2" s="9" t="s">
         <v>146</v>
       </c>
-      <c r="C2" s="55"/>
+      <c r="C2" s="55">
+        <v>43101</v>
+      </c>
     </row>
     <row r="3" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B3" s="9" t="s">
         <v>147</v>
       </c>
-      <c r="C3" s="55"/>
+      <c r="C3" s="55">
+        <f ca="1">TODAY()</f>
+        <v>43381</v>
+      </c>
     </row>
     <row r="4" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B4" s="9" t="s">
         <v>148</v>
       </c>
-      <c r="C4" s="56"/>
+      <c r="C4" s="56">
+        <f ca="1">NOW()</f>
+        <v>43381.848460995374</v>
+      </c>
     </row>
     <row r="6" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B6" s="3" t="s">
@@ -7110,12 +7415,30 @@
       </c>
     </row>
     <row r="7" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="57"/>
-      <c r="C7" s="57"/>
-      <c r="D7" s="57"/>
-      <c r="E7" s="57"/>
-      <c r="F7" s="57"/>
-      <c r="G7" s="57"/>
+      <c r="B7" s="57">
+        <f ca="1">YEAR($C$3)</f>
+        <v>2018</v>
+      </c>
+      <c r="C7" s="57">
+        <f ca="1">MONTH($C$3)</f>
+        <v>10</v>
+      </c>
+      <c r="D7" s="57">
+        <f ca="1">DAY($C$3)</f>
+        <v>8</v>
+      </c>
+      <c r="E7" s="57">
+        <f ca="1">HOUR($C$4)</f>
+        <v>20</v>
+      </c>
+      <c r="F7" s="57">
+        <f ca="1">MINUTE($C$4)</f>
+        <v>21</v>
+      </c>
+      <c r="G7" s="57">
+        <f ca="1">SECOND($C$4)</f>
+        <v>47</v>
+      </c>
     </row>
     <row r="8" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="28"/>
@@ -7130,7 +7453,10 @@
       <c r="B9" s="9" t="s">
         <v>153</v>
       </c>
-      <c r="C9" s="72"/>
+      <c r="C9" s="77">
+        <f ca="1">WEEKDAY(C3)</f>
+        <v>2</v>
+      </c>
     </row>
     <row r="10" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B10" s="9"/>
@@ -7140,66 +7466,310 @@
       <c r="B11" s="9" t="s">
         <v>154</v>
       </c>
-      <c r="C11" s="55"/>
+      <c r="C11" s="55">
+        <f ca="1">WORKDAY(C3, 50)</f>
+        <v>43451</v>
+      </c>
     </row>
     <row r="12" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B12" s="30" t="s">
         <v>155</v>
       </c>
-      <c r="C12" s="58"/>
+      <c r="C12" s="58">
+        <f ca="1">NETWORKDAYS(C2,C3)</f>
+        <v>201</v>
+      </c>
     </row>
     <row r="13" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="14" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B14" s="30" t="s">
         <v>156</v>
       </c>
-      <c r="C14" s="55"/>
+      <c r="C14" s="55">
+        <f ca="1">EOMONTH($C$3,0)</f>
+        <v>43404</v>
+      </c>
     </row>
     <row r="15" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B15" s="30" t="s">
         <v>157</v>
       </c>
-      <c r="C15" s="55"/>
+      <c r="C15" s="55">
+        <f ca="1">EOMONTH($C$3,-1)+1</f>
+        <v>43374</v>
+      </c>
     </row>
     <row r="16" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B16" s="30" t="s">
         <v>158</v>
       </c>
-      <c r="C16" s="55"/>
-    </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="C16" s="55">
+        <f ca="1">EOMONTH(C3, -MONTH(C3))+1</f>
+        <v>43101</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B18" s="1" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:6" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B19" s="31">
         <v>42005</v>
       </c>
-    </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B20" s="31"/>
-    </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B21" s="31"/>
-    </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B22" s="31"/>
-    </row>
-    <row r="23" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B23" s="31"/>
-    </row>
-    <row r="24" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B24" s="31"/>
-    </row>
-    <row r="25" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B25" s="31"/>
-    </row>
-    <row r="26" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B26" s="31"/>
+      <c r="C19" s="57">
+        <f>DAY($B19)</f>
+        <v>1</v>
+      </c>
+      <c r="D19" s="57">
+        <f>WEEKDAY($B19)</f>
+        <v>5</v>
+      </c>
+      <c r="E19" s="57">
+        <f>MONTH($B19)</f>
+        <v>1</v>
+      </c>
+      <c r="F19" s="57">
+        <f>YEAR($B19)</f>
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="31">
+        <v>42006</v>
+      </c>
+      <c r="C20" s="57">
+        <f t="shared" ref="C20:C30" si="0">DAY(B20)</f>
+        <v>2</v>
+      </c>
+      <c r="D20" s="57">
+        <f t="shared" ref="D20:D30" si="1">WEEKDAY($B20)</f>
+        <v>6</v>
+      </c>
+      <c r="E20" s="57">
+        <f t="shared" ref="E20:E30" si="2">MONTH($B20)</f>
+        <v>1</v>
+      </c>
+      <c r="F20" s="57">
+        <f t="shared" ref="F20:F30" si="3">YEAR($B20)</f>
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="21" spans="2:6" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="31">
+        <v>42007</v>
+      </c>
+      <c r="C21" s="57">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="D21" s="57">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="E21" s="57">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="F21" s="57">
+        <f t="shared" si="3"/>
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="22" spans="2:6" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="31">
+        <v>42008</v>
+      </c>
+      <c r="C22" s="57">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="D22" s="57">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="E22" s="57">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="F22" s="57">
+        <f t="shared" si="3"/>
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="23" spans="2:6" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B23" s="31">
+        <v>42009</v>
+      </c>
+      <c r="C23" s="57">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="D23" s="57">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="E23" s="57">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="F23" s="57">
+        <f t="shared" si="3"/>
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="24" spans="2:6" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B24" s="31">
+        <v>42010</v>
+      </c>
+      <c r="C24" s="57">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="D24" s="57">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="E24" s="57">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="F24" s="57">
+        <f t="shared" si="3"/>
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="25" spans="2:6" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B25" s="31">
+        <v>42011</v>
+      </c>
+      <c r="C25" s="57">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="D25" s="57">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="E25" s="57">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="F25" s="57">
+        <f t="shared" si="3"/>
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="26" spans="2:6" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B26" s="31">
+        <v>42012</v>
+      </c>
+      <c r="C26" s="57">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="D26" s="57">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="E26" s="57">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="F26" s="57">
+        <f t="shared" si="3"/>
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="27" spans="2:6" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B27" s="31">
+        <v>42013</v>
+      </c>
+      <c r="C27" s="57">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="D27" s="57">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="E27" s="57">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="F27" s="57">
+        <f t="shared" si="3"/>
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="28" spans="2:6" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B28" s="31">
+        <v>42014</v>
+      </c>
+      <c r="C28" s="57">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="D28" s="57">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="E28" s="57">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="F28" s="57">
+        <f t="shared" si="3"/>
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="29" spans="2:6" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B29" s="31">
+        <v>42015</v>
+      </c>
+      <c r="C29" s="57">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="D29" s="57">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="E29" s="57">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="F29" s="57">
+        <f t="shared" si="3"/>
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="30" spans="2:6" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B30" s="31">
+        <v>42016</v>
+      </c>
+      <c r="C30" s="57">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="D30" s="57">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="E30" s="57">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="F30" s="57">
+        <f t="shared" si="3"/>
+        <v>2015</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <ignoredErrors>
+    <ignoredError sqref="D19" formula="1"/>
+  </ignoredErrors>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
@@ -7211,8 +7781,8 @@
   </sheetPr>
   <dimension ref="A1:G25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J25" sqref="J25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -7252,13 +7822,13 @@
       <c r="A2" s="24">
         <v>41640</v>
       </c>
-      <c r="B2" s="25">
+      <c r="B2" s="78">
         <v>1099</v>
       </c>
-      <c r="C2" s="25">
+      <c r="C2" s="78">
         <v>275</v>
       </c>
-      <c r="D2" s="25">
+      <c r="D2" s="78">
         <v>643</v>
       </c>
       <c r="E2" s="25">
@@ -7268,7 +7838,7 @@
       <c r="F2" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="G2" s="73">
+      <c r="G2" s="79">
         <f>E2/B2</f>
         <v>0.41492265696087355</v>
       </c>
@@ -7280,11 +7850,11 @@
       <c r="B3" s="27">
         <v>1204</v>
       </c>
-      <c r="C3" s="27">
+      <c r="C3" s="78">
         <f>B3-B2</f>
         <v>105</v>
       </c>
-      <c r="D3" s="27">
+      <c r="D3" s="78">
         <v>720</v>
       </c>
       <c r="E3" s="27">
@@ -7293,7 +7863,7 @@
       <c r="F3" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="G3" s="74">
+      <c r="G3" s="80">
         <f t="shared" ref="G3:G25" si="0">E3/B3</f>
         <v>0.17524916943521596</v>
       </c>
@@ -7302,14 +7872,14 @@
       <c r="A4" s="26">
         <v>41699</v>
       </c>
-      <c r="B4" s="27">
+      <c r="B4" s="78">
         <v>1944</v>
       </c>
-      <c r="C4" s="27">
+      <c r="C4" s="78">
         <f t="shared" ref="C4:C25" si="1">B4-B3</f>
         <v>740</v>
       </c>
-      <c r="D4" s="27">
+      <c r="D4" s="78">
         <v>964</v>
       </c>
       <c r="E4" s="27">
@@ -7319,7 +7889,7 @@
       <c r="F4" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="G4" s="74">
+      <c r="G4" s="80">
         <f t="shared" si="0"/>
         <v>0.50411522633744854</v>
       </c>
@@ -7328,14 +7898,14 @@
       <c r="A5" s="26">
         <v>41730</v>
       </c>
-      <c r="B5" s="27">
+      <c r="B5" s="78">
         <v>1743</v>
       </c>
-      <c r="C5" s="27">
+      <c r="C5" s="78">
         <f t="shared" si="1"/>
         <v>-201</v>
       </c>
-      <c r="D5" s="27">
+      <c r="D5" s="78">
         <v>830</v>
       </c>
       <c r="E5" s="27">
@@ -7345,7 +7915,7 @@
       <c r="F5" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="G5" s="74">
+      <c r="G5" s="80">
         <f t="shared" si="0"/>
         <v>0.52380952380952384</v>
       </c>
@@ -7354,14 +7924,14 @@
       <c r="A6" s="26">
         <v>41760</v>
       </c>
-      <c r="B6" s="27">
+      <c r="B6" s="78">
         <v>1609</v>
       </c>
-      <c r="C6" s="27">
+      <c r="C6" s="78">
         <f t="shared" si="1"/>
         <v>-134</v>
       </c>
-      <c r="D6" s="27">
+      <c r="D6" s="78">
         <v>910</v>
       </c>
       <c r="E6" s="27">
@@ -7371,7 +7941,7 @@
       <c r="F6" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="G6" s="74">
+      <c r="G6" s="80">
         <f t="shared" si="0"/>
         <v>0.43443132380360472</v>
       </c>
@@ -7380,14 +7950,14 @@
       <c r="A7" s="26">
         <v>41791</v>
       </c>
-      <c r="B7" s="27">
+      <c r="B7" s="78">
         <v>1494</v>
       </c>
-      <c r="C7" s="27">
+      <c r="C7" s="78">
         <f t="shared" si="1"/>
         <v>-115</v>
       </c>
-      <c r="D7" s="27">
+      <c r="D7" s="78">
         <v>909</v>
       </c>
       <c r="E7" s="27">
@@ -7397,7 +7967,7 @@
       <c r="F7" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="G7" s="74">
+      <c r="G7" s="80">
         <f t="shared" si="0"/>
         <v>0.39156626506024095</v>
       </c>
@@ -7406,14 +7976,14 @@
       <c r="A8" s="26">
         <v>41821</v>
       </c>
-      <c r="B8" s="27">
+      <c r="B8" s="78">
         <v>1959</v>
       </c>
-      <c r="C8" s="27">
+      <c r="C8" s="78">
         <f t="shared" si="1"/>
         <v>465</v>
       </c>
-      <c r="D8" s="27">
+      <c r="D8" s="78">
         <v>830</v>
       </c>
       <c r="E8" s="27">
@@ -7423,7 +7993,7 @@
       <c r="F8" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="G8" s="74">
+      <c r="G8" s="80">
         <f t="shared" si="0"/>
         <v>0.57631444614599281</v>
       </c>
@@ -7432,14 +8002,14 @@
       <c r="A9" s="26">
         <v>41852</v>
       </c>
-      <c r="B9" s="27">
+      <c r="B9" s="78">
         <v>1868</v>
       </c>
-      <c r="C9" s="27">
+      <c r="C9" s="78">
         <f t="shared" si="1"/>
         <v>-91</v>
       </c>
-      <c r="D9" s="27">
+      <c r="D9" s="78">
         <v>906</v>
       </c>
       <c r="E9" s="27">
@@ -7449,7 +8019,7 @@
       <c r="F9" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="G9" s="74">
+      <c r="G9" s="80">
         <f t="shared" si="0"/>
         <v>0.51498929336188437</v>
       </c>
@@ -7458,14 +8028,14 @@
       <c r="A10" s="26">
         <v>41883</v>
       </c>
-      <c r="B10" s="27">
+      <c r="B10" s="78">
         <v>1162</v>
       </c>
-      <c r="C10" s="27">
+      <c r="C10" s="78">
         <f t="shared" si="1"/>
         <v>-706</v>
       </c>
-      <c r="D10" s="27">
+      <c r="D10" s="78">
         <v>606</v>
       </c>
       <c r="E10" s="27">
@@ -7475,7 +8045,7 @@
       <c r="F10" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="G10" s="74">
+      <c r="G10" s="80">
         <f t="shared" si="0"/>
         <v>0.47848537005163511</v>
       </c>
@@ -7484,14 +8054,14 @@
       <c r="A11" s="26">
         <v>41913</v>
       </c>
-      <c r="B11" s="27">
+      <c r="B11" s="78">
         <v>1424</v>
       </c>
-      <c r="C11" s="27">
+      <c r="C11" s="78">
         <f t="shared" si="1"/>
         <v>262</v>
       </c>
-      <c r="D11" s="27">
+      <c r="D11" s="78">
         <v>943</v>
       </c>
       <c r="E11" s="27">
@@ -7501,7 +8071,7 @@
       <c r="F11" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="G11" s="74">
+      <c r="G11" s="80">
         <f t="shared" si="0"/>
         <v>0.3377808988764045</v>
       </c>
@@ -7510,14 +8080,14 @@
       <c r="A12" s="26">
         <v>41944</v>
       </c>
-      <c r="B12" s="27">
+      <c r="B12" s="78">
         <v>1232</v>
       </c>
-      <c r="C12" s="27">
+      <c r="C12" s="78">
         <f t="shared" si="1"/>
         <v>-192</v>
       </c>
-      <c r="D12" s="27">
+      <c r="D12" s="78">
         <v>801</v>
       </c>
       <c r="E12" s="27">
@@ -7527,7 +8097,7 @@
       <c r="F12" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="G12" s="74">
+      <c r="G12" s="80">
         <f t="shared" si="0"/>
         <v>0.34983766233766234</v>
       </c>
@@ -7536,14 +8106,14 @@
       <c r="A13" s="26">
         <v>41974</v>
       </c>
-      <c r="B13" s="27">
+      <c r="B13" s="78">
         <v>1738</v>
       </c>
-      <c r="C13" s="27">
+      <c r="C13" s="78">
         <f t="shared" si="1"/>
         <v>506</v>
       </c>
-      <c r="D13" s="27">
+      <c r="D13" s="78">
         <v>786</v>
       </c>
       <c r="E13" s="27">
@@ -7553,7 +8123,7 @@
       <c r="F13" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="G13" s="74">
+      <c r="G13" s="80">
         <f t="shared" si="0"/>
         <v>0.54775604142692746</v>
       </c>
@@ -7562,14 +8132,14 @@
       <c r="A14" s="26">
         <v>42005</v>
       </c>
-      <c r="B14" s="27">
+      <c r="B14" s="78">
         <v>1435</v>
       </c>
-      <c r="C14" s="27">
+      <c r="C14" s="78">
         <f t="shared" si="1"/>
         <v>-303</v>
       </c>
-      <c r="D14" s="27">
+      <c r="D14" s="78">
         <v>575</v>
       </c>
       <c r="E14" s="27">
@@ -7579,7 +8149,7 @@
       <c r="F14" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="G14" s="74">
+      <c r="G14" s="80">
         <f t="shared" si="0"/>
         <v>0.5993031358885017</v>
       </c>
@@ -7588,14 +8158,14 @@
       <c r="A15" s="26">
         <v>42036</v>
       </c>
-      <c r="B15" s="27">
+      <c r="B15" s="78">
         <v>1865</v>
       </c>
-      <c r="C15" s="27">
+      <c r="C15" s="78">
         <f t="shared" si="1"/>
         <v>430</v>
       </c>
-      <c r="D15" s="27">
+      <c r="D15" s="78">
         <v>754</v>
       </c>
       <c r="E15" s="27">
@@ -7605,7 +8175,7 @@
       <c r="F15" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="G15" s="74">
+      <c r="G15" s="80">
         <f t="shared" si="0"/>
         <v>0.59571045576407511</v>
       </c>
@@ -7614,14 +8184,14 @@
       <c r="A16" s="26">
         <v>42064</v>
       </c>
-      <c r="B16" s="27">
+      <c r="B16" s="78">
         <v>1234</v>
       </c>
-      <c r="C16" s="27">
+      <c r="C16" s="78">
         <f t="shared" si="1"/>
         <v>-631</v>
       </c>
-      <c r="D16" s="27">
+      <c r="D16" s="78">
         <v>599</v>
       </c>
       <c r="E16" s="27">
@@ -7631,7 +8201,7 @@
       <c r="F16" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="G16" s="74">
+      <c r="G16" s="80">
         <f t="shared" si="0"/>
         <v>0.51458670988654787</v>
       </c>
@@ -7640,14 +8210,14 @@
       <c r="A17" s="26">
         <v>42095</v>
       </c>
-      <c r="B17" s="27">
+      <c r="B17" s="78">
         <v>1577</v>
       </c>
-      <c r="C17" s="27">
+      <c r="C17" s="78">
         <f t="shared" si="1"/>
         <v>343</v>
       </c>
-      <c r="D17" s="27">
+      <c r="D17" s="78">
         <v>940</v>
       </c>
       <c r="E17" s="27">
@@ -7657,7 +8227,7 @@
       <c r="F17" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="G17" s="74">
+      <c r="G17" s="80">
         <f t="shared" si="0"/>
         <v>0.40393151553582751</v>
       </c>
@@ -7666,14 +8236,14 @@
       <c r="A18" s="26">
         <v>42125</v>
       </c>
-      <c r="B18" s="27">
+      <c r="B18" s="78">
         <v>1983</v>
       </c>
-      <c r="C18" s="27">
+      <c r="C18" s="78">
         <f t="shared" si="1"/>
         <v>406</v>
       </c>
-      <c r="D18" s="27">
+      <c r="D18" s="78">
         <v>954</v>
       </c>
       <c r="E18" s="27">
@@ -7683,7 +8253,7 @@
       <c r="F18" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="G18" s="74">
+      <c r="G18" s="80">
         <f t="shared" si="0"/>
         <v>0.51891074130105896</v>
       </c>
@@ -7692,14 +8262,14 @@
       <c r="A19" s="26">
         <v>42156</v>
       </c>
-      <c r="B19" s="27">
+      <c r="B19" s="78">
         <v>1356</v>
       </c>
-      <c r="C19" s="27">
+      <c r="C19" s="78">
         <f t="shared" si="1"/>
         <v>-627</v>
       </c>
-      <c r="D19" s="27">
+      <c r="D19" s="78">
         <v>577</v>
       </c>
       <c r="E19" s="27">
@@ -7709,7 +8279,7 @@
       <c r="F19" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="G19" s="74">
+      <c r="G19" s="80">
         <f t="shared" si="0"/>
         <v>0.57448377581120946</v>
       </c>
@@ -7718,14 +8288,14 @@
       <c r="A20" s="26">
         <v>42186</v>
       </c>
-      <c r="B20" s="27">
+      <c r="B20" s="78">
         <v>1874</v>
       </c>
-      <c r="C20" s="27">
+      <c r="C20" s="78">
         <f t="shared" si="1"/>
         <v>518</v>
       </c>
-      <c r="D20" s="27">
+      <c r="D20" s="78">
         <v>865</v>
       </c>
       <c r="E20" s="27">
@@ -7734,7 +8304,7 @@
       <c r="F20" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="G20" s="74">
+      <c r="G20" s="80">
         <f t="shared" si="0"/>
         <v>0.47118463180362863</v>
       </c>
@@ -7743,14 +8313,14 @@
       <c r="A21" s="26">
         <v>42217</v>
       </c>
-      <c r="B21" s="27">
+      <c r="B21" s="78">
         <v>1479</v>
       </c>
-      <c r="C21" s="27">
+      <c r="C21" s="78">
         <f t="shared" si="1"/>
         <v>-395</v>
       </c>
-      <c r="D21" s="27">
+      <c r="D21" s="78">
         <v>588</v>
       </c>
       <c r="E21" s="27">
@@ -7760,7 +8330,7 @@
       <c r="F21" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="G21" s="74">
+      <c r="G21" s="80">
         <f t="shared" si="0"/>
         <v>0.60243407707910746</v>
       </c>
@@ -7769,14 +8339,14 @@
       <c r="A22" s="26">
         <v>42248</v>
       </c>
-      <c r="B22" s="27">
+      <c r="B22" s="78">
         <v>1943</v>
       </c>
-      <c r="C22" s="27">
+      <c r="C22" s="78">
         <f t="shared" si="1"/>
         <v>464</v>
       </c>
-      <c r="D22" s="27">
+      <c r="D22" s="78">
         <v>785</v>
       </c>
       <c r="E22" s="27">
@@ -7785,7 +8355,7 @@
       <c r="F22" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="G22" s="74">
+      <c r="G22" s="80">
         <f t="shared" si="0"/>
         <v>0.36644364384971695</v>
       </c>
@@ -7794,14 +8364,14 @@
       <c r="A23" s="26">
         <v>42278</v>
       </c>
-      <c r="B23" s="27">
+      <c r="B23" s="78">
         <v>1444</v>
       </c>
-      <c r="C23" s="27">
+      <c r="C23" s="78">
         <f t="shared" si="1"/>
         <v>-499</v>
       </c>
-      <c r="D23" s="27">
+      <c r="D23" s="78">
         <v>657</v>
       </c>
       <c r="E23" s="27">
@@ -7811,7 +8381,7 @@
       <c r="F23" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="G23" s="74">
+      <c r="G23" s="80">
         <f t="shared" si="0"/>
         <v>0.54501385041551242</v>
       </c>
@@ -7820,14 +8390,14 @@
       <c r="A24" s="26">
         <v>42309</v>
       </c>
-      <c r="B24" s="27">
+      <c r="B24" s="78">
         <v>1493</v>
       </c>
-      <c r="C24" s="27">
+      <c r="C24" s="78">
         <f t="shared" si="1"/>
         <v>49</v>
       </c>
-      <c r="D24" s="27">
+      <c r="D24" s="78">
         <v>880</v>
       </c>
       <c r="E24" s="27">
@@ -7837,7 +8407,7 @@
       <c r="F24" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="G24" s="74">
+      <c r="G24" s="80">
         <f t="shared" si="0"/>
         <v>0.4105827193569993</v>
       </c>
@@ -7846,14 +8416,14 @@
       <c r="A25" s="26">
         <v>42339</v>
       </c>
-      <c r="B25" s="27">
+      <c r="B25" s="78">
         <v>1738</v>
       </c>
-      <c r="C25" s="27">
+      <c r="C25" s="78">
         <f t="shared" si="1"/>
         <v>245</v>
       </c>
-      <c r="D25" s="27">
+      <c r="D25" s="78">
         <v>580</v>
       </c>
       <c r="E25" s="27">
@@ -7863,14 +8433,57 @@
       <c r="F25" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="G25" s="74">
+      <c r="G25" s="80">
         <f t="shared" si="0"/>
         <v>0.66628308400460301</v>
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="G2:G25">
+    <cfRule type="expression" dxfId="7" priority="6">
+      <formula>$G2&gt;60%</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="6" priority="5">
+      <formula>G2&lt;30%</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A2:A25">
+    <cfRule type="expression" dxfId="5" priority="2">
+      <formula>$G2&lt;40%</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A2:G25">
+    <cfRule type="expression" dxfId="4" priority="1">
+      <formula>$F2="Kids"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
+      <x14:conditionalFormattings>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="3" id="{FD1F6665-43F6-0247-B1E1-B74C714E2810}">
+            <x14:iconSet iconSet="3Arrows" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>-200</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num" gte="0">
+                <xm:f>200</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="3Arrows" iconId="0"/>
+              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
+              <x14:cfIcon iconSet="3Arrows" iconId="2"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>C2:C25</xm:sqref>
+        </x14:conditionalFormatting>
+      </x14:conditionalFormattings>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -8010,7 +8623,7 @@
       </c>
       <c r="H6" s="53"/>
       <c r="I6" s="13"/>
-      <c r="J6" s="75"/>
+      <c r="J6" s="72"/>
     </row>
     <row r="7" spans="1:10" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
@@ -8028,7 +8641,7 @@
       <c r="E7" s="8">
         <v>15332</v>
       </c>
-      <c r="J7" s="76"/>
+      <c r="J7" s="73"/>
     </row>
     <row r="8" spans="1:10" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
@@ -8221,23 +8834,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" s="32" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="77" t="s">
+      <c r="A1" s="74" t="s">
         <v>193</v>
       </c>
-      <c r="B1" s="77"/>
-      <c r="C1" s="77"/>
-      <c r="D1" s="77"/>
+      <c r="B1" s="74"/>
+      <c r="C1" s="74"/>
+      <c r="D1" s="74"/>
       <c r="E1" s="3"/>
-      <c r="F1" s="78" t="s">
+      <c r="F1" s="75" t="s">
         <v>194</v>
       </c>
-      <c r="G1" s="78"/>
-      <c r="I1" s="79" t="s">
+      <c r="G1" s="75"/>
+      <c r="I1" s="76" t="s">
         <v>195</v>
       </c>
-      <c r="J1" s="79"/>
-      <c r="K1" s="79"/>
-      <c r="L1" s="79"/>
+      <c r="J1" s="76"/>
+      <c r="K1" s="76"/>
+      <c r="L1" s="76"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">

--- a/Excel-Homework-Exercises.xlsx
+++ b/Excel-Homework-Exercises.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/GodSpeed/Documents/CodeWork/excelAdvancedFormulas/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5571AF22-8F97-E743-B542-0C0423B11878}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{287583CA-0C8F-5342-8897-CCBDFE19DE2B}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" tabRatio="709" firstSheet="7" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" tabRatio="709" firstSheet="7" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Formulas 101" sheetId="19" r:id="rId1"/>
@@ -1050,7 +1050,7 @@
     <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="81">
+  <cellXfs count="82">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1272,13 +1272,16 @@
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="2" builtinId="5"/>
   </cellStyles>
-  <dxfs count="28">
+  <dxfs count="4">
     <dxf>
       <font>
         <color theme="1"/>
@@ -1308,252 +1311,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF8F8D"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF8F8D"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF8F8D"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
         </patternFill>
       </fill>
     </dxf>
@@ -7382,7 +7139,7 @@
       </c>
       <c r="C3" s="55">
         <f ca="1">TODAY()</f>
-        <v>43381</v>
+        <v>43382</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -7391,7 +7148,7 @@
       </c>
       <c r="C4" s="56">
         <f ca="1">NOW()</f>
-        <v>43381.848460995374</v>
+        <v>43382.107798495374</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
@@ -7425,19 +7182,19 @@
       </c>
       <c r="D7" s="57">
         <f ca="1">DAY($C$3)</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E7" s="57">
         <f ca="1">HOUR($C$4)</f>
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="F7" s="57">
         <f ca="1">MINUTE($C$4)</f>
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="G7" s="57">
         <f ca="1">SECOND($C$4)</f>
-        <v>47</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
@@ -7455,7 +7212,7 @@
       </c>
       <c r="C9" s="77">
         <f ca="1">WEEKDAY(C3)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -7468,7 +7225,7 @@
       </c>
       <c r="C11" s="55">
         <f ca="1">WORKDAY(C3, 50)</f>
-        <v>43451</v>
+        <v>43452</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -7477,7 +7234,7 @@
       </c>
       <c r="C12" s="58">
         <f ca="1">NETWORKDAYS(C2,C3)</f>
-        <v>201</v>
+        <v>202</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
@@ -7781,8 +7538,8 @@
   </sheetPr>
   <dimension ref="A1:G25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -8440,20 +8197,20 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="G2:G25">
-    <cfRule type="expression" dxfId="7" priority="6">
+    <cfRule type="expression" dxfId="3" priority="6">
       <formula>$G2&gt;60%</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="6" priority="5">
+    <cfRule type="expression" dxfId="2" priority="5">
       <formula>G2&lt;30%</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2:A25">
-    <cfRule type="expression" dxfId="5" priority="2">
+    <cfRule type="expression" dxfId="1" priority="2">
       <formula>$G2&lt;40%</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2:G25">
-    <cfRule type="expression" dxfId="4" priority="1">
+    <cfRule type="expression" dxfId="0" priority="1">
       <formula>$F2="Kids"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8495,7 +8252,7 @@
   <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L24" sqref="L24"/>
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -8545,7 +8302,10 @@
       <c r="G2" s="9" t="s">
         <v>233</v>
       </c>
-      <c r="H2" s="65"/>
+      <c r="H2" s="65">
+        <f t="array" ref="H2">MAX(IF($B$2:$B$16="NYC",$E$2:$E$16))</f>
+        <v>25897</v>
+      </c>
     </row>
     <row r="3" spans="1:10" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
@@ -8583,7 +8343,10 @@
       <c r="G4" s="9" t="s">
         <v>236</v>
       </c>
-      <c r="H4" s="65"/>
+      <c r="H4" s="65">
+        <f t="array" ref="H4">MAX(IF(($B$2:$B$16="NYC")*($C$2:$C$16="Electronics"),$E$2:$E$16))</f>
+        <v>15414</v>
+      </c>
     </row>
     <row r="5" spans="1:10" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
@@ -8621,7 +8384,10 @@
       <c r="G6" s="9" t="s">
         <v>240</v>
       </c>
-      <c r="H6" s="53"/>
+      <c r="H6" s="53">
+        <f t="array" ref="H6">SUM(--(E2:E16&gt;D2:D16))</f>
+        <v>9</v>
+      </c>
       <c r="I6" s="13"/>
       <c r="J6" s="72"/>
     </row>
@@ -8662,7 +8428,10 @@
       <c r="G8" s="9" t="s">
         <v>242</v>
       </c>
-      <c r="H8" s="65"/>
+      <c r="H8" s="65">
+        <f t="array" ref="H8">SUM(($B$2:$B$16="BOS")*(E2:E16+D2:D16))</f>
+        <v>140337</v>
+      </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
@@ -8813,8 +8582,8 @@
   </sheetPr>
   <dimension ref="A1:L19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -8903,10 +8672,22 @@
       <c r="G3" s="44">
         <v>42379</v>
       </c>
-      <c r="I3" s="59"/>
-      <c r="J3" s="59"/>
-      <c r="K3" s="60"/>
-      <c r="L3" s="60"/>
+      <c r="I3" s="59">
+        <f t="array" ref="I3">IFERROR(INDEX(A$3:A$14,SMALL(IF(($G$2&lt;=$A$3:$A$14)*($G$3&gt;=$A$3:$A$14)*($C$3:$C$14&gt;=$G$4),ROW(A$3:A$14)-2),ROWS(A$3:A3))),"")</f>
+        <v>42373</v>
+      </c>
+      <c r="J3" s="59" t="str">
+        <f t="array" ref="J3">IFERROR(INDEX(B$3:B$14,SMALL(IF(($G$2&lt;=$A$3:$A$14)*($G$3&gt;=$A$3:$A$14)*($C$3:$C$14&gt;=$G$4),ROW(B$3:B$14)-2),ROWS(B$3:B3))),"")</f>
+        <v>D</v>
+      </c>
+      <c r="K3" s="60">
+        <f t="array" ref="K3">IFERROR(INDEX(C$3:C$14,SMALL(IF(($G$2&lt;=$A$3:$A$14)*($G$3&gt;=$A$3:$A$14)*($C$3:$C$14&gt;=$G$4),ROW(C$3:C$14)-2),ROWS(C$3:C3))),"")</f>
+        <v>150000</v>
+      </c>
+      <c r="L3" s="60">
+        <f t="array" ref="L3">IFERROR(INDEX(D$3:D$14,SMALL(IF(($G$2&lt;=$A$3:$A$14)*($G$3&gt;=$A$3:$A$14)*($C$3:$C$14&gt;=$G$4),ROW(D$3:D$14)-2),ROWS(D$3:D3))),"")</f>
+        <v>8000</v>
+      </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" s="31">
@@ -8927,10 +8708,22 @@
       <c r="G4" s="46">
         <v>100000</v>
       </c>
-      <c r="I4" s="59"/>
-      <c r="J4" s="59"/>
-      <c r="K4" s="60"/>
-      <c r="L4" s="60"/>
+      <c r="I4" s="59">
+        <f t="array" ref="I4">IFERROR(INDEX(A$3:A$14,SMALL(IF(($G$2&lt;=$A$3:$A$14)*($G$3&gt;=$A$3:$A$14)*($C$3:$C$14&gt;=$G$4),ROW(A$3:A$14)-2),ROWS(A$3:A4))),"")</f>
+        <v>42376</v>
+      </c>
+      <c r="J4" s="59" t="str">
+        <f t="array" ref="J4">IFERROR(INDEX(B$3:B$14,SMALL(IF(($G$2&lt;=$A$3:$A$14)*($G$3&gt;=$A$3:$A$14)*($C$3:$C$14&gt;=$G$4),ROW(B$3:B$14)-2),ROWS(B$3:B4))),"")</f>
+        <v>G</v>
+      </c>
+      <c r="K4" s="60">
+        <f t="array" ref="K4">IFERROR(INDEX(C$3:C$14,SMALL(IF(($G$2&lt;=$A$3:$A$14)*($G$3&gt;=$A$3:$A$14)*($C$3:$C$14&gt;=$G$4),ROW(C$3:C$14)-2),ROWS(C$3:C4))),"")</f>
+        <v>120000</v>
+      </c>
+      <c r="L4" s="60">
+        <f t="array" ref="L4">IFERROR(INDEX(D$3:D$14,SMALL(IF(($G$2&lt;=$A$3:$A$14)*($G$3&gt;=$A$3:$A$14)*($C$3:$C$14&gt;=$G$4),ROW(D$3:D$14)-2),ROWS(D$3:D4))),"")</f>
+        <v>12000</v>
+      </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="31">
@@ -8947,10 +8740,22 @@
       </c>
       <c r="F5" s="9"/>
       <c r="G5" s="47"/>
-      <c r="I5" s="59"/>
-      <c r="J5" s="59"/>
-      <c r="K5" s="60"/>
-      <c r="L5" s="60"/>
+      <c r="I5" s="59">
+        <f t="array" ref="I5">IFERROR(INDEX(A$3:A$14,SMALL(IF(($G$2&lt;=$A$3:$A$14)*($G$3&gt;=$A$3:$A$14)*($C$3:$C$14&gt;=$G$4),ROW(A$3:A$14)-2),ROWS(A$3:A5))),"")</f>
+        <v>42377</v>
+      </c>
+      <c r="J5" s="59" t="str">
+        <f t="array" ref="J5">IFERROR(INDEX(B$3:B$14,SMALL(IF(($G$2&lt;=$A$3:$A$14)*($G$3&gt;=$A$3:$A$14)*($C$3:$C$14&gt;=$G$4),ROW(B$3:B$14)-2),ROWS(B$3:B5))),"")</f>
+        <v>H</v>
+      </c>
+      <c r="K5" s="60">
+        <f t="array" ref="K5">IFERROR(INDEX(C$3:C$14,SMALL(IF(($G$2&lt;=$A$3:$A$14)*($G$3&gt;=$A$3:$A$14)*($C$3:$C$14&gt;=$G$4),ROW(C$3:C$14)-2),ROWS(C$3:C5))),"")</f>
+        <v>105000</v>
+      </c>
+      <c r="L5" s="60">
+        <f t="array" ref="L5">IFERROR(INDEX(D$3:D$14,SMALL(IF(($G$2&lt;=$A$3:$A$14)*($G$3&gt;=$A$3:$A$14)*($C$3:$C$14&gt;=$G$4),ROW(D$3:D$14)-2),ROWS(D$3:D5))),"")</f>
+        <v>10000</v>
+      </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" s="31">
@@ -8965,10 +8770,22 @@
       <c r="D6" s="8">
         <v>8000</v>
       </c>
-      <c r="I6" s="59"/>
-      <c r="J6" s="59"/>
-      <c r="K6" s="60"/>
-      <c r="L6" s="60"/>
+      <c r="I6" s="59">
+        <f t="array" ref="I6">IFERROR(INDEX(A$3:A$14,SMALL(IF(($G$2&lt;=$A$3:$A$14)*($G$3&gt;=$A$3:$A$14)*($C$3:$C$14&gt;=$G$4),ROW(A$3:A$14)-2),ROWS(A$3:A6))),"")</f>
+        <v>42379</v>
+      </c>
+      <c r="J6" s="59" t="str">
+        <f t="array" ref="J6">IFERROR(INDEX(B$3:B$14,SMALL(IF(($G$2&lt;=$A$3:$A$14)*($G$3&gt;=$A$3:$A$14)*($C$3:$C$14&gt;=$G$4),ROW(B$3:B$14)-2),ROWS(B$3:B6))),"")</f>
+        <v>J</v>
+      </c>
+      <c r="K6" s="60">
+        <f t="array" ref="K6">IFERROR(INDEX(C$3:C$14,SMALL(IF(($G$2&lt;=$A$3:$A$14)*($G$3&gt;=$A$3:$A$14)*($C$3:$C$14&gt;=$G$4),ROW(C$3:C$14)-2),ROWS(C$3:C6))),"")</f>
+        <v>110000</v>
+      </c>
+      <c r="L6" s="60">
+        <f t="array" ref="L6">IFERROR(INDEX(D$3:D$14,SMALL(IF(($G$2&lt;=$A$3:$A$14)*($G$3&gt;=$A$3:$A$14)*($C$3:$C$14&gt;=$G$4),ROW(D$3:D$14)-2),ROWS(D$3:D6))),"")</f>
+        <v>12000</v>
+      </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" s="31">
@@ -8983,10 +8800,22 @@
       <c r="D7" s="8">
         <v>12000</v>
       </c>
-      <c r="I7" s="59"/>
-      <c r="J7" s="59"/>
-      <c r="K7" s="60"/>
-      <c r="L7" s="60"/>
+      <c r="I7" s="59" t="str">
+        <f t="array" ref="I7">IFERROR(INDEX(A$3:A$14,SMALL(IF(($G$2&lt;=$A$3:$A$14)*($G$3&gt;=$A$3:$A$14)*($C$3:$C$14&gt;=$G$4),ROW(A$3:A$14)-2),ROWS(A$3:A7))),"")</f>
+        <v/>
+      </c>
+      <c r="J7" s="59" t="str">
+        <f t="array" ref="J7">IFERROR(INDEX(B$3:B$14,SMALL(IF(($G$2&lt;=$A$3:$A$14)*($G$3&gt;=$A$3:$A$14)*($C$3:$C$14&gt;=$G$4),ROW(B$3:B$14)-2),ROWS(B$3:B7))),"")</f>
+        <v/>
+      </c>
+      <c r="K7" s="60" t="str">
+        <f t="array" ref="K7">IFERROR(INDEX(C$3:C$14,SMALL(IF(($G$2&lt;=$A$3:$A$14)*($G$3&gt;=$A$3:$A$14)*($C$3:$C$14&gt;=$G$4),ROW(C$3:C$14)-2),ROWS(C$3:C7))),"")</f>
+        <v/>
+      </c>
+      <c r="L7" s="60" t="str">
+        <f t="array" ref="L7">IFERROR(INDEX(D$3:D$14,SMALL(IF(($G$2&lt;=$A$3:$A$14)*($G$3&gt;=$A$3:$A$14)*($C$3:$C$14&gt;=$G$4),ROW(D$3:D$14)-2),ROWS(D$3:D7))),"")</f>
+        <v/>
+      </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" s="31">
@@ -9001,10 +8830,22 @@
       <c r="D8" s="8">
         <v>8000</v>
       </c>
-      <c r="I8" s="59"/>
-      <c r="J8" s="59"/>
-      <c r="K8" s="60"/>
-      <c r="L8" s="60"/>
+      <c r="I8" s="59" t="str">
+        <f t="array" ref="I8">IFERROR(INDEX(A$3:A$14,SMALL(IF(($G$2&lt;=$A$3:$A$14)*($G$3&gt;=$A$3:$A$14)*($C$3:$C$14&gt;=$G$4),ROW(A$3:A$14)-2),ROWS(A$3:A8))),"")</f>
+        <v/>
+      </c>
+      <c r="J8" s="59" t="str">
+        <f t="array" ref="J8">IFERROR(INDEX(B$3:B$14,SMALL(IF(($G$2&lt;=$A$3:$A$14)*($G$3&gt;=$A$3:$A$14)*($C$3:$C$14&gt;=$G$4),ROW(B$3:B$14)-2),ROWS(B$3:B8))),"")</f>
+        <v/>
+      </c>
+      <c r="K8" s="60" t="str">
+        <f t="array" ref="K8">IFERROR(INDEX(C$3:C$14,SMALL(IF(($G$2&lt;=$A$3:$A$14)*($G$3&gt;=$A$3:$A$14)*($C$3:$C$14&gt;=$G$4),ROW(C$3:C$14)-2),ROWS(C$3:C8))),"")</f>
+        <v/>
+      </c>
+      <c r="L8" s="60" t="str">
+        <f t="array" ref="L8">IFERROR(INDEX(D$3:D$14,SMALL(IF(($G$2&lt;=$A$3:$A$14)*($G$3&gt;=$A$3:$A$14)*($C$3:$C$14&gt;=$G$4),ROW(D$3:D$14)-2),ROWS(D$3:D8))),"")</f>
+        <v/>
+      </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" s="31">
@@ -9019,10 +8860,22 @@
       <c r="D9" s="8">
         <v>12000</v>
       </c>
-      <c r="I9" s="59"/>
-      <c r="J9" s="59"/>
-      <c r="K9" s="60"/>
-      <c r="L9" s="60"/>
+      <c r="I9" s="59" t="str">
+        <f t="array" ref="I9">IFERROR(INDEX(A$3:A$14,SMALL(IF(($G$2&lt;=$A$3:$A$14)*($G$3&gt;=$A$3:$A$14)*($C$3:$C$14&gt;=$G$4),ROW(A$3:A$14)-2),ROWS(A$3:A9))),"")</f>
+        <v/>
+      </c>
+      <c r="J9" s="59" t="str">
+        <f t="array" ref="J9">IFERROR(INDEX(B$3:B$14,SMALL(IF(($G$2&lt;=$A$3:$A$14)*($G$3&gt;=$A$3:$A$14)*($C$3:$C$14&gt;=$G$4),ROW(B$3:B$14)-2),ROWS(B$3:B9))),"")</f>
+        <v/>
+      </c>
+      <c r="K9" s="60" t="str">
+        <f t="array" ref="K9">IFERROR(INDEX(C$3:C$14,SMALL(IF(($G$2&lt;=$A$3:$A$14)*($G$3&gt;=$A$3:$A$14)*($C$3:$C$14&gt;=$G$4),ROW(C$3:C$14)-2),ROWS(C$3:C9))),"")</f>
+        <v/>
+      </c>
+      <c r="L9" s="60" t="str">
+        <f t="array" ref="L9">IFERROR(INDEX(D$3:D$14,SMALL(IF(($G$2&lt;=$A$3:$A$14)*($G$3&gt;=$A$3:$A$14)*($C$3:$C$14&gt;=$G$4),ROW(D$3:D$14)-2),ROWS(D$3:D9))),"")</f>
+        <v/>
+      </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" s="31">
@@ -9037,10 +8890,22 @@
       <c r="D10" s="8">
         <v>10000</v>
       </c>
-      <c r="I10" s="59"/>
-      <c r="J10" s="59"/>
-      <c r="K10" s="60"/>
-      <c r="L10" s="60"/>
+      <c r="I10" s="59" t="str">
+        <f t="array" ref="I10">IFERROR(INDEX(A$3:A$14,SMALL(IF(($G$2&lt;=$A$3:$A$14)*($G$3&gt;=$A$3:$A$14)*($C$3:$C$14&gt;=$G$4),ROW(A$3:A$14)-2),ROWS(A$3:A10))),"")</f>
+        <v/>
+      </c>
+      <c r="J10" s="59" t="str">
+        <f t="array" ref="J10">IFERROR(INDEX(B$3:B$14,SMALL(IF(($G$2&lt;=$A$3:$A$14)*($G$3&gt;=$A$3:$A$14)*($C$3:$C$14&gt;=$G$4),ROW(B$3:B$14)-2),ROWS(B$3:B10))),"")</f>
+        <v/>
+      </c>
+      <c r="K10" s="60" t="str">
+        <f t="array" ref="K10">IFERROR(INDEX(C$3:C$14,SMALL(IF(($G$2&lt;=$A$3:$A$14)*($G$3&gt;=$A$3:$A$14)*($C$3:$C$14&gt;=$G$4),ROW(C$3:C$14)-2),ROWS(C$3:C10))),"")</f>
+        <v/>
+      </c>
+      <c r="L10" s="60" t="str">
+        <f t="array" ref="L10">IFERROR(INDEX(D$3:D$14,SMALL(IF(($G$2&lt;=$A$3:$A$14)*($G$3&gt;=$A$3:$A$14)*($C$3:$C$14&gt;=$G$4),ROW(D$3:D$14)-2),ROWS(D$3:D10))),"")</f>
+        <v/>
+      </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" s="31">
@@ -9055,10 +8920,22 @@
       <c r="D11" s="8">
         <v>12000</v>
       </c>
-      <c r="I11" s="59"/>
-      <c r="J11" s="59"/>
-      <c r="K11" s="60"/>
-      <c r="L11" s="60"/>
+      <c r="I11" s="59" t="str">
+        <f t="array" ref="I11">IFERROR(INDEX(A$3:A$14,SMALL(IF(($G$2&lt;=$A$3:$A$14)*($G$3&gt;=$A$3:$A$14)*($C$3:$C$14&gt;=$G$4),ROW(A$3:A$14)-2),ROWS(A$3:A11))),"")</f>
+        <v/>
+      </c>
+      <c r="J11" s="59" t="str">
+        <f t="array" ref="J11">IFERROR(INDEX(B$3:B$14,SMALL(IF(($G$2&lt;=$A$3:$A$14)*($G$3&gt;=$A$3:$A$14)*($C$3:$C$14&gt;=$G$4),ROW(B$3:B$14)-2),ROWS(B$3:B11))),"")</f>
+        <v/>
+      </c>
+      <c r="K11" s="60" t="str">
+        <f t="array" ref="K11">IFERROR(INDEX(C$3:C$14,SMALL(IF(($G$2&lt;=$A$3:$A$14)*($G$3&gt;=$A$3:$A$14)*($C$3:$C$14&gt;=$G$4),ROW(C$3:C$14)-2),ROWS(C$3:C11))),"")</f>
+        <v/>
+      </c>
+      <c r="L11" s="60" t="str">
+        <f t="array" ref="L11">IFERROR(INDEX(D$3:D$14,SMALL(IF(($G$2&lt;=$A$3:$A$14)*($G$3&gt;=$A$3:$A$14)*($C$3:$C$14&gt;=$G$4),ROW(D$3:D$14)-2),ROWS(D$3:D11))),"")</f>
+        <v/>
+      </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" s="31">
@@ -9073,10 +8950,22 @@
       <c r="D12" s="8">
         <v>12000</v>
       </c>
-      <c r="I12" s="59"/>
-      <c r="J12" s="59"/>
-      <c r="K12" s="60"/>
-      <c r="L12" s="60"/>
+      <c r="I12" s="59" t="str">
+        <f t="array" ref="I12">IFERROR(INDEX(A$3:A$14,SMALL(IF(($G$2&lt;=$A$3:$A$14)*($G$3&gt;=$A$3:$A$14)*($C$3:$C$14&gt;=$G$4),ROW(A$3:A$14)-2),ROWS(A$3:A12))),"")</f>
+        <v/>
+      </c>
+      <c r="J12" s="59" t="str">
+        <f t="array" ref="J12">IFERROR(INDEX(B$3:B$14,SMALL(IF(($G$2&lt;=$A$3:$A$14)*($G$3&gt;=$A$3:$A$14)*($C$3:$C$14&gt;=$G$4),ROW(B$3:B$14)-2),ROWS(B$3:B12))),"")</f>
+        <v/>
+      </c>
+      <c r="K12" s="60" t="str">
+        <f t="array" ref="K12">IFERROR(INDEX(C$3:C$14,SMALL(IF(($G$2&lt;=$A$3:$A$14)*($G$3&gt;=$A$3:$A$14)*($C$3:$C$14&gt;=$G$4),ROW(C$3:C$14)-2),ROWS(C$3:C12))),"")</f>
+        <v/>
+      </c>
+      <c r="L12" s="60" t="str">
+        <f t="array" ref="L12">IFERROR(INDEX(D$3:D$14,SMALL(IF(($G$2&lt;=$A$3:$A$14)*($G$3&gt;=$A$3:$A$14)*($C$3:$C$14&gt;=$G$4),ROW(D$3:D$14)-2),ROWS(D$3:D12))),"")</f>
+        <v/>
+      </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" s="31">
@@ -9092,10 +8981,22 @@
         <v>10000</v>
       </c>
       <c r="H13" s="2"/>
-      <c r="I13" s="59"/>
-      <c r="J13" s="59"/>
-      <c r="K13" s="60"/>
-      <c r="L13" s="60"/>
+      <c r="I13" s="59" t="str">
+        <f t="array" ref="I13">IFERROR(INDEX(A$3:A$14,SMALL(IF(($G$2&lt;=$A$3:$A$14)*($G$3&gt;=$A$3:$A$14)*($C$3:$C$14&gt;=$G$4),ROW(A$3:A$14)-2),ROWS(A$3:A13))),"")</f>
+        <v/>
+      </c>
+      <c r="J13" s="59" t="str">
+        <f t="array" ref="J13">IFERROR(INDEX(B$3:B$14,SMALL(IF(($G$2&lt;=$A$3:$A$14)*($G$3&gt;=$A$3:$A$14)*($C$3:$C$14&gt;=$G$4),ROW(B$3:B$14)-2),ROWS(B$3:B13))),"")</f>
+        <v/>
+      </c>
+      <c r="K13" s="60" t="str">
+        <f t="array" ref="K13">IFERROR(INDEX(C$3:C$14,SMALL(IF(($G$2&lt;=$A$3:$A$14)*($G$3&gt;=$A$3:$A$14)*($C$3:$C$14&gt;=$G$4),ROW(C$3:C$14)-2),ROWS(C$3:C13))),"")</f>
+        <v/>
+      </c>
+      <c r="L13" s="60" t="str">
+        <f t="array" ref="L13">IFERROR(INDEX(D$3:D$14,SMALL(IF(($G$2&lt;=$A$3:$A$14)*($G$3&gt;=$A$3:$A$14)*($C$3:$C$14&gt;=$G$4),ROW(D$3:D$14)-2),ROWS(D$3:D13))),"")</f>
+        <v/>
+      </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" s="31">
@@ -9111,10 +9012,22 @@
         <v>12000</v>
       </c>
       <c r="H14" s="2"/>
-      <c r="I14" s="59"/>
-      <c r="J14" s="59"/>
-      <c r="K14" s="60"/>
-      <c r="L14" s="60"/>
+      <c r="I14" s="59" t="str">
+        <f t="array" ref="I14">IFERROR(INDEX(A$3:A$14,SMALL(IF(($G$2&lt;=$A$3:$A$14)*($G$3&gt;=$A$3:$A$14)*($C$3:$C$14&gt;=$G$4),ROW(A$3:A$14)-2),ROWS(A$3:A14))),"")</f>
+        <v/>
+      </c>
+      <c r="J14" s="59" t="str">
+        <f t="array" ref="J14">IFERROR(INDEX(B$3:B$14,SMALL(IF(($G$2&lt;=$A$3:$A$14)*($G$3&gt;=$A$3:$A$14)*($C$3:$C$14&gt;=$G$4),ROW(B$3:B$14)-2),ROWS(B$3:B14))),"")</f>
+        <v/>
+      </c>
+      <c r="K14" s="60" t="str">
+        <f t="array" ref="K14">IFERROR(INDEX(C$3:C$14,SMALL(IF(($G$2&lt;=$A$3:$A$14)*($G$3&gt;=$A$3:$A$14)*($C$3:$C$14&gt;=$G$4),ROW(C$3:C$14)-2),ROWS(C$3:C14))),"")</f>
+        <v/>
+      </c>
+      <c r="L14" s="60" t="str">
+        <f t="array" ref="L14">IFERROR(INDEX(D$3:D$14,SMALL(IF(($G$2&lt;=$A$3:$A$14)*($G$3&gt;=$A$3:$A$14)*($C$3:$C$14&gt;=$G$4),ROW(D$3:D$14)-2),ROWS(D$3:D14))),"")</f>
+        <v/>
+      </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="H15" s="2"/>
@@ -9175,10 +9088,7 @@
     </row>
     <row r="18" spans="8:12" x14ac:dyDescent="0.2">
       <c r="H18" s="2"/>
-      <c r="I18" s="31" t="str">
-        <f t="array" ref="I18">IFERROR(INDEX(A$3:A$14,SMALL(IF(($C$3:$C$14&gt;=$G$4)*($A$3:$A$14&gt;=$G$2)*($A$3:$A$14&lt;=$G$3),ROW(A$3:A$14)-ROW(A$3)+1),ROWS(A$3:A18))),"")</f>
-        <v/>
-      </c>
+      <c r="I18" s="81"/>
       <c r="J18" s="31" t="str">
         <f t="array" ref="J18">IFERROR(INDEX(B$3:B$14,SMALL(IF(($C$3:$C$14&gt;=$G$4)*($A$3:$A$14&gt;=$G$2)*($A$3:$A$14&lt;=$G$3),ROW(B$3:B$14)-ROW(B$3)+1),ROWS(B$3:B18))),"")</f>
         <v/>
